--- a/biology/Zoologie/Cercartetus_concinnus/Cercartetus_concinnus.xlsx
+++ b/biology/Zoologie/Cercartetus_concinnus/Cercartetus_concinnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cercartetus concinnus (Cercartetus concinnus, en anglais : the Southwestern Pygmy Possum ou the Western Pygmy Possum ou the Mundarda) est un opossum pygmée du Sud de l'Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ressemble aux autres opossums pygmées mais s'en distingue par la couleur cannelle de son pelage qui devient blanche sur le ventre.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans la partie Sud-Ouest de l'Australie Occidentale ainsi que dans les zones céréalières de l'Australie-Méridionale et du Sud de l'État de Victoria jusqu'à Edenhope. On le trouve aussi dans l'île de Kangaroo Island.
 </t>
@@ -573,7 +589,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un animal nocturne qui passe ses journées dans un nid au sommet des arbres, ne descendant que la nuit pour se nourrir.
 </t>
@@ -604,7 +622,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'invertébrés et de nectar.
 </t>
